--- a/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
+++ b/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -227,6 +227,116 @@
         <v>0.07159329501494785</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1.1993322807698887</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2.3758877717639884</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2.413486364972186</v>
+      </c>
+      <c r="D6" s="0">
+        <v>-0.86585001746396684</v>
+      </c>
+      <c r="E6" s="0">
+        <v>-0.78012023365383742</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>8.3366194783562833</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.86585001746396684</v>
+      </c>
+      <c r="I6" s="0">
+        <v>4.5494284741316866</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>2.688821387764051e-17</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2.7925609058034806</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0">
+        <v>-0.010657853425638181</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="F7" s="0">
+        <v>3.7665825361947448e+18</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1.275668646441314e+18</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.23430532913982935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2.7122120396162424</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0">
+        <v>-0.97942001697994874</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.61367412211482841</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G8" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.97942001697994874</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.53369547192961131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2.1421186466279774</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0">
+        <v>-0.099589484540936551</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="F9" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G9" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.07159329501494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
+++ b/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -337,6 +337,116 @@
         <v>0.07159329501494785</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1.1993322807698887</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2.3758877717639884</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2.413486364972186</v>
+      </c>
+      <c r="D10" s="0">
+        <v>-0.86585001746396684</v>
+      </c>
+      <c r="E10" s="0">
+        <v>-0.78012023365383742</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
+        <v>8.3366194783562833</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.86585001746396684</v>
+      </c>
+      <c r="I10" s="0">
+        <v>4.5494284741316866</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2.688821387764051e-17</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2.7925609058034806</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0">
+        <v>-0.010657853425638181</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="F11" s="0">
+        <v>3.7665825361947448e+18</v>
+      </c>
+      <c r="G11" s="0">
+        <v>1.275668646441314e+18</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.23430532913982935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2.7122120396162424</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0">
+        <v>-0.97942001697994874</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.61367412211482841</v>
+      </c>
+      <c r="F12" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G12" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.97942001697994874</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.53369547192961131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2.1421186466279774</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0">
+        <v>-0.099589484540936551</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="F13" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G13" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.07159329501494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
+++ b/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -447,6 +447,116 @@
         <v>0.07159329501494785</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1.1993322807698887</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2.3758877717639884</v>
+      </c>
+      <c r="C14" s="0">
+        <v>2.413486364972186</v>
+      </c>
+      <c r="D14" s="0">
+        <v>-0.86585001746396684</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.78012023365383742</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0">
+        <v>8.3366194783562833</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.86585001746396684</v>
+      </c>
+      <c r="I14" s="0">
+        <v>4.5494284741316866</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2.688821387764051e-17</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2.7925609058034806</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0">
+        <v>-0.010657853425638181</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="F15" s="0">
+        <v>3.7665825361947448e+18</v>
+      </c>
+      <c r="G15" s="0">
+        <v>1.275668646441314e+18</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.23430532913982935</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2.7122120396162424</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0">
+        <v>-0.97942001697994874</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.61367412211482841</v>
+      </c>
+      <c r="F16" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G16" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.97942001697994874</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.53369547192961131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2.1421186466279774</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0">
+        <v>-0.099589484540936551</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="F17" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G17" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.07159329501494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
+++ b/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
@@ -60,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,13 +69,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -557,6 +559,116 @@
         <v>0.07159329501494785</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>1.1993322807698887</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2.3758877717639884</v>
+      </c>
+      <c r="C18" s="0">
+        <v>2.413486364972186</v>
+      </c>
+      <c r="D18" s="0">
+        <v>-0.86585001746396684</v>
+      </c>
+      <c r="E18" s="0">
+        <v>-0.78012023365383742</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0">
+        <v>8.3366194783562833</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.86585001746396684</v>
+      </c>
+      <c r="I18" s="0">
+        <v>4.5494284741316866</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>2.688821387764051e-17</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2.7925609058034806</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0">
+        <v>-0.010657853425638181</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="F19" s="0">
+        <v>3.7665825361947448e+18</v>
+      </c>
+      <c r="G19" s="0">
+        <v>1.275668646441314e+18</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.23430532913982935</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2.7122120396162424</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0">
+        <v>-0.97942001697994874</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.61367412211482841</v>
+      </c>
+      <c r="F20" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G20" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.97942001697994874</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.53369547192961131</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" s="0">
+        <v>2.1421186466279774</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0">
+        <v>-0.099589484540936551</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="F21" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G21" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0.07159329501494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
+++ b/rip/plots/Q_and_R_plots/Set_index_4/param_step.xlsx
@@ -87,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -669,6 +669,116 @@
         <v>0.07159329501494785</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>1.1993322807698887</v>
+      </c>
+      <c r="B22" s="0">
+        <v>2.3758877717639884</v>
+      </c>
+      <c r="C22" s="0">
+        <v>2.413486364972186</v>
+      </c>
+      <c r="D22" s="0">
+        <v>-0.86585001746396684</v>
+      </c>
+      <c r="E22" s="0">
+        <v>-0.78012023365383742</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0">
+        <v>8.3366194783562833</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.86585001746396684</v>
+      </c>
+      <c r="I22" s="0">
+        <v>4.5494284741316866</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>2.688821387764051e-17</v>
+      </c>
+      <c r="B23" s="0">
+        <v>2.7925609058034806</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0">
+        <v>-0.010657853425638181</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="F23" s="0">
+        <v>3.7665825361947448e+18</v>
+      </c>
+      <c r="G23" s="0">
+        <v>1.275668646441314e+18</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.031468739706286171</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.23430532913982935</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0">
+        <v>2.7122120396162424</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0">
+        <v>-0.97942001697994874</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.61367412211482841</v>
+      </c>
+      <c r="F24" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G24" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.97942001697994874</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.53369547192961131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2.1421186466279774</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0">
+        <v>-0.099589484540936551</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="F25" s="0">
+        <v>65535</v>
+      </c>
+      <c r="G25" s="0">
+        <v>65535</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.22536832624391215</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.07159329501494785</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>